--- a/AT+OBD_commands.xlsx
+++ b/AT+OBD_commands.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AT016018\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\PlatformIO\Projects\OBD2WiFi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E8C65-17EA-49DB-A88C-F6557E9DD947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58589FD-389F-4603-A180-8896DC5303EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{BEB07E72-C996-4577-9662-799CB2FDA2B4}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{BEB07E72-C996-4577-9662-799CB2FDA2B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -557,9 +557,6 @@
     <t>M0, M1</t>
   </si>
   <si>
-    <t>Memory on, memory off</t>
-  </si>
-  <si>
     <t>Usar timeout hhx4ms</t>
   </si>
   <si>
@@ -573,6 +570,9 @@
   </si>
   <si>
     <t>descripción</t>
+  </si>
+  <si>
+    <t>Memory off, memory on</t>
   </si>
 </sst>
 </file>
@@ -648,54 +648,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -915,6 +867,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -934,30 +910,6 @@
         <patternFill patternType="solid">
           <fgColor theme="4"/>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1072,6 +1024,54 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,33 +1278,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C25728CC-254F-4042-894A-ACEB31817D38}" name="Tabla1" displayName="Tabla1" ref="B2:D20" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C25728CC-254F-4042-894A-ACEB31817D38}" name="Tabla1" displayName="Tabla1" ref="B2:D20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="B2:D20" xr:uid="{CC41CFCD-EBDE-417A-9666-FFD368BD6EA2}"/>
   <sortState ref="B3:D20">
     <sortCondition ref="D2:D20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{46172150-8B26-4858-B64A-C428F3BE13EE}" name="ELM327" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{55745B75-9EDB-4873-BD2B-76411DDBCB68}" name="descripción" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{82B8B71F-E623-4628-A439-A5C2134C52EC}" name="prioridad" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{46172150-8B26-4858-B64A-C428F3BE13EE}" name="ELM327" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{55745B75-9EDB-4873-BD2B-76411DDBCB68}" name="descripción" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{82B8B71F-E623-4628-A439-A5C2134C52EC}" name="prioridad" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D609438-A56C-4E17-92D6-7DE4F944CDD2}" name="Tabla2" displayName="Tabla2" ref="F2:K55" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D609438-A56C-4E17-92D6-7DE4F944CDD2}" name="Tabla2" displayName="Tabla2" ref="F2:K55" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="F2:K55" xr:uid="{DA01CC7E-F9F3-4079-B2C8-466C4FF650BF}"/>
   <sortState ref="F3:K55">
     <sortCondition ref="K2:K55"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5120831D-49CB-4F48-BA3F-AC7C483B070D}" name="OBD" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DD389C3F-B0E1-4CA2-93AF-54EF2CF677E3}" name="descripción" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F7E2DD9E-9BD1-4F5F-8E95-284083871960}" name="bytes respuesta" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1A045C68-004C-4F91-AFBD-B0AEEA502DC6}" name="conversión" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8D096E51-9FAE-42E5-820A-46F9F2936BCB}" name="unidad" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{64E96123-9338-44EF-AFE7-A5EADB261AB6}" name="prioridad" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5120831D-49CB-4F48-BA3F-AC7C483B070D}" name="OBD" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DD389C3F-B0E1-4CA2-93AF-54EF2CF677E3}" name="descripción" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F7E2DD9E-9BD1-4F5F-8E95-284083871960}" name="bytes respuesta" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1A045C68-004C-4F91-AFBD-B0AEEA502DC6}" name="conversión" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8D096E51-9FAE-42E5-820A-46F9F2936BCB}" name="unidad" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{64E96123-9338-44EF-AFE7-A5EADB261AB6}" name="prioridad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>39</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>4</v>
@@ -1692,7 +1692,7 @@
         <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>171</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
